--- a/Audit/Rapport d’analyse SEO.xlsx
+++ b/Audit/Rapport d’analyse SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/034a97a1dcb27667/Documents/P4 - Agence Panthere/Audit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="947" documentId="8_{521D8E9C-0ED0-4954-B275-595378B5C1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FA75C09-EAEE-4976-9377-1E20FB619ACE}"/>
+  <xr:revisionPtr revIDLastSave="948" documentId="8_{521D8E9C-0ED0-4954-B275-595378B5C1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{661E10A7-9AC0-412C-AF03-132E6250113C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{74CB3524-DD3C-406A-B746-104185BFF315}"/>
   </bookViews>
@@ -1618,28 +1618,6 @@
         <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-      </rPr>
-      <t>nom de la page de contact</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Le </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2421,6 +2399,30 @@
   <si>
     <t>Remplacer les valeurs erronées.</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Le </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nom de la page de contact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -3201,16 +3203,48 @@
     <xf numFmtId="0" fontId="23" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3285,43 +3319,11 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3345,10 +3347,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3650,8 +3648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B092A7E-07A5-4654-B9FE-71910B53C135}">
   <dimension ref="A1:BL990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3733,14 +3731,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="33" customHeight="1">
-      <c r="A3" s="119" t="s">
-        <v>103</v>
+      <c r="A3" s="80" t="s">
+        <v>102</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -3813,7 +3811,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>26</v>
@@ -3899,7 +3897,7 @@
         <v>26</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -3939,7 +3937,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -3979,7 +3977,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -4019,7 +4017,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -4099,7 +4097,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -4163,20 +4161,20 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="15.75">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="91" t="s">
-        <v>109</v>
+      <c r="B14" s="103" t="s">
+        <v>108</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="105" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="60"/>
-      <c r="E14" s="95" t="s">
+      <c r="E14" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="97" t="s">
+      <c r="F14" s="109" t="s">
         <v>61</v>
       </c>
       <c r="G14" s="2"/>
@@ -4201,14 +4199,14 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="51" customHeight="1">
-      <c r="A15" s="90"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="94"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="106"/>
       <c r="D15" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="96"/>
-      <c r="F15" s="98"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="110"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -4231,20 +4229,20 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="34.5" customHeight="1">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="100" t="s">
-        <v>110</v>
+      <c r="B16" s="112" t="s">
+        <v>109</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="114" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="61"/>
-      <c r="E16" s="104" t="s">
+      <c r="E16" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="106" t="s">
+      <c r="F16" s="118" t="s">
         <v>63</v>
       </c>
       <c r="G16" s="2"/>
@@ -4269,14 +4267,14 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:64" ht="111.75" customHeight="1">
-      <c r="A17" s="99"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="103"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="105"/>
-      <c r="F17" s="106"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="118"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -4299,161 +4297,161 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:64">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="81" t="s">
-        <v>78</v>
+      <c r="B18" s="119" t="s">
+        <v>126</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="95" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="32"/>
-      <c r="E18" s="85" t="s">
+      <c r="E18" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="87" t="s">
+      <c r="F18" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="89"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="107"/>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="107"/>
-      <c r="AD18" s="107"/>
-      <c r="AE18" s="107"/>
-      <c r="AF18" s="107"/>
-      <c r="AG18" s="107"/>
-      <c r="AH18" s="107"/>
-      <c r="AI18" s="107"/>
-      <c r="AJ18" s="107"/>
-      <c r="AK18" s="107"/>
-      <c r="AL18" s="107"/>
-      <c r="AM18" s="107"/>
-      <c r="AN18" s="107"/>
-      <c r="AO18" s="107"/>
-      <c r="AP18" s="107"/>
-      <c r="AQ18" s="107"/>
-      <c r="AR18" s="107"/>
-      <c r="AS18" s="107"/>
-      <c r="AT18" s="107"/>
-      <c r="AU18" s="107"/>
-      <c r="AV18" s="107"/>
-      <c r="AW18" s="107"/>
-      <c r="AX18" s="107"/>
-      <c r="AY18" s="107"/>
-      <c r="AZ18" s="107"/>
-      <c r="BA18" s="107"/>
-      <c r="BB18" s="107"/>
-      <c r="BC18" s="107"/>
-      <c r="BD18" s="107"/>
-      <c r="BE18" s="107"/>
-      <c r="BF18" s="107"/>
-      <c r="BG18" s="107"/>
-      <c r="BH18" s="107"/>
-      <c r="BI18" s="107"/>
-      <c r="BJ18" s="107"/>
-      <c r="BK18" s="107"/>
-      <c r="BL18" s="118"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="82"/>
+      <c r="AE18" s="82"/>
+      <c r="AF18" s="82"/>
+      <c r="AG18" s="82"/>
+      <c r="AH18" s="82"/>
+      <c r="AI18" s="82"/>
+      <c r="AJ18" s="82"/>
+      <c r="AK18" s="82"/>
+      <c r="AL18" s="82"/>
+      <c r="AM18" s="82"/>
+      <c r="AN18" s="82"/>
+      <c r="AO18" s="82"/>
+      <c r="AP18" s="82"/>
+      <c r="AQ18" s="82"/>
+      <c r="AR18" s="82"/>
+      <c r="AS18" s="82"/>
+      <c r="AT18" s="82"/>
+      <c r="AU18" s="82"/>
+      <c r="AV18" s="82"/>
+      <c r="AW18" s="82"/>
+      <c r="AX18" s="82"/>
+      <c r="AY18" s="82"/>
+      <c r="AZ18" s="82"/>
+      <c r="BA18" s="82"/>
+      <c r="BB18" s="82"/>
+      <c r="BC18" s="82"/>
+      <c r="BD18" s="82"/>
+      <c r="BE18" s="82"/>
+      <c r="BF18" s="82"/>
+      <c r="BG18" s="82"/>
+      <c r="BH18" s="82"/>
+      <c r="BI18" s="82"/>
+      <c r="BJ18" s="82"/>
+      <c r="BK18" s="82"/>
+      <c r="BL18" s="79"/>
     </row>
     <row r="19" spans="1:64" ht="105" customHeight="1">
-      <c r="A19" s="80"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="84"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="96"/>
       <c r="D19" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="86"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="107"/>
-      <c r="Y19" s="107"/>
-      <c r="Z19" s="107"/>
-      <c r="AA19" s="107"/>
-      <c r="AB19" s="107"/>
-      <c r="AC19" s="107"/>
-      <c r="AD19" s="107"/>
-      <c r="AE19" s="107"/>
-      <c r="AF19" s="107"/>
-      <c r="AG19" s="107"/>
-      <c r="AH19" s="107"/>
-      <c r="AI19" s="107"/>
-      <c r="AJ19" s="107"/>
-      <c r="AK19" s="107"/>
-      <c r="AL19" s="107"/>
-      <c r="AM19" s="107"/>
-      <c r="AN19" s="107"/>
-      <c r="AO19" s="107"/>
-      <c r="AP19" s="107"/>
-      <c r="AQ19" s="107"/>
-      <c r="AR19" s="107"/>
-      <c r="AS19" s="107"/>
-      <c r="AT19" s="107"/>
-      <c r="AU19" s="107"/>
-      <c r="AV19" s="107"/>
-      <c r="AW19" s="107"/>
-      <c r="AX19" s="107"/>
-      <c r="AY19" s="107"/>
-      <c r="AZ19" s="107"/>
-      <c r="BA19" s="107"/>
-      <c r="BB19" s="107"/>
-      <c r="BC19" s="107"/>
-      <c r="BD19" s="107"/>
-      <c r="BE19" s="107"/>
-      <c r="BF19" s="107"/>
-      <c r="BG19" s="107"/>
-      <c r="BH19" s="107"/>
-      <c r="BI19" s="107"/>
-      <c r="BJ19" s="107"/>
-      <c r="BK19" s="107"/>
-      <c r="BL19" s="118"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="82"/>
+      <c r="AC19" s="82"/>
+      <c r="AD19" s="82"/>
+      <c r="AE19" s="82"/>
+      <c r="AF19" s="82"/>
+      <c r="AG19" s="82"/>
+      <c r="AH19" s="82"/>
+      <c r="AI19" s="82"/>
+      <c r="AJ19" s="82"/>
+      <c r="AK19" s="82"/>
+      <c r="AL19" s="82"/>
+      <c r="AM19" s="82"/>
+      <c r="AN19" s="82"/>
+      <c r="AO19" s="82"/>
+      <c r="AP19" s="82"/>
+      <c r="AQ19" s="82"/>
+      <c r="AR19" s="82"/>
+      <c r="AS19" s="82"/>
+      <c r="AT19" s="82"/>
+      <c r="AU19" s="82"/>
+      <c r="AV19" s="82"/>
+      <c r="AW19" s="82"/>
+      <c r="AX19" s="82"/>
+      <c r="AY19" s="82"/>
+      <c r="AZ19" s="82"/>
+      <c r="BA19" s="82"/>
+      <c r="BB19" s="82"/>
+      <c r="BC19" s="82"/>
+      <c r="BD19" s="82"/>
+      <c r="BE19" s="82"/>
+      <c r="BF19" s="82"/>
+      <c r="BG19" s="82"/>
+      <c r="BH19" s="82"/>
+      <c r="BI19" s="82"/>
+      <c r="BJ19" s="82"/>
+      <c r="BK19" s="82"/>
+      <c r="BL19" s="79"/>
     </row>
     <row r="20" spans="1:64" ht="66.75" customHeight="1">
       <c r="A20" s="50" t="s">
         <v>62</v>
       </c>
       <c r="B20" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="51" t="s">
-        <v>80</v>
-      </c>
       <c r="D20" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="53" t="s">
         <v>26</v>
@@ -4525,19 +4523,19 @@
         <v>74</v>
       </c>
       <c r="B21" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="D21" s="35" t="s">
         <v>83</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>84</v>
       </c>
       <c r="E21" s="36" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -4603,19 +4601,19 @@
         <v>74</v>
       </c>
       <c r="B22" s="76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -4678,22 +4676,22 @@
     </row>
     <row r="23" spans="1:64" ht="117" customHeight="1">
       <c r="A23" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E23" s="49" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -4718,22 +4716,22 @@
     </row>
     <row r="24" spans="1:64" ht="114.75" customHeight="1">
       <c r="A24" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="71" t="s">
-        <v>119</v>
-      </c>
       <c r="D24" s="68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" s="49" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -4758,22 +4756,22 @@
     </row>
     <row r="25" spans="1:64" ht="59.25" customHeight="1">
       <c r="A25" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" s="78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" s="71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D25" s="72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" s="49" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -4853,11 +4851,11 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:64" ht="46.5" customHeight="1">
-      <c r="A28" s="108" t="s">
-        <v>88</v>
+      <c r="A28" s="90" t="s">
+        <v>87</v>
       </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="110"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -4922,13 +4920,13 @@
     </row>
     <row r="29" spans="1:64" ht="55.5" customHeight="1">
       <c r="A29" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -4993,214 +4991,214 @@
       <c r="BL29" s="15"/>
     </row>
     <row r="30" spans="1:64">
-      <c r="A30" s="111" t="s">
-        <v>90</v>
+      <c r="A30" s="83" t="s">
+        <v>89</v>
       </c>
-      <c r="B30" s="114" t="s">
+      <c r="B30" s="85" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="18"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="107"/>
-      <c r="P30" s="107"/>
-      <c r="Q30" s="107"/>
-      <c r="R30" s="107"/>
-      <c r="S30" s="107"/>
-      <c r="T30" s="107"/>
-      <c r="U30" s="107"/>
-      <c r="V30" s="107"/>
-      <c r="W30" s="107"/>
-      <c r="X30" s="107"/>
-      <c r="Y30" s="107"/>
-      <c r="Z30" s="107"/>
-      <c r="AA30" s="107"/>
-      <c r="AB30" s="107"/>
-      <c r="AC30" s="107"/>
-      <c r="AD30" s="107"/>
-      <c r="AE30" s="107"/>
-      <c r="AF30" s="107"/>
-      <c r="AG30" s="107"/>
-      <c r="AH30" s="107"/>
-      <c r="AI30" s="107"/>
-      <c r="AJ30" s="107"/>
-      <c r="AK30" s="107"/>
-      <c r="AL30" s="107"/>
-      <c r="AM30" s="107"/>
-      <c r="AN30" s="107"/>
-      <c r="AO30" s="107"/>
-      <c r="AP30" s="107"/>
-      <c r="AQ30" s="107"/>
-      <c r="AR30" s="107"/>
-      <c r="AS30" s="107"/>
-      <c r="AT30" s="107"/>
-      <c r="AU30" s="107"/>
-      <c r="AV30" s="107"/>
-      <c r="AW30" s="107"/>
-      <c r="AX30" s="107"/>
-      <c r="AY30" s="107"/>
-      <c r="AZ30" s="107"/>
-      <c r="BA30" s="107"/>
-      <c r="BB30" s="107"/>
-      <c r="BC30" s="107"/>
-      <c r="BD30" s="107"/>
-      <c r="BE30" s="107"/>
-      <c r="BF30" s="107"/>
-      <c r="BG30" s="107"/>
-      <c r="BH30" s="107"/>
-      <c r="BI30" s="107"/>
-      <c r="BJ30" s="107"/>
-      <c r="BK30" s="107"/>
-      <c r="BL30" s="118"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="82"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="82"/>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="82"/>
+      <c r="AB30" s="82"/>
+      <c r="AC30" s="82"/>
+      <c r="AD30" s="82"/>
+      <c r="AE30" s="82"/>
+      <c r="AF30" s="82"/>
+      <c r="AG30" s="82"/>
+      <c r="AH30" s="82"/>
+      <c r="AI30" s="82"/>
+      <c r="AJ30" s="82"/>
+      <c r="AK30" s="82"/>
+      <c r="AL30" s="82"/>
+      <c r="AM30" s="82"/>
+      <c r="AN30" s="82"/>
+      <c r="AO30" s="82"/>
+      <c r="AP30" s="82"/>
+      <c r="AQ30" s="82"/>
+      <c r="AR30" s="82"/>
+      <c r="AS30" s="82"/>
+      <c r="AT30" s="82"/>
+      <c r="AU30" s="82"/>
+      <c r="AV30" s="82"/>
+      <c r="AW30" s="82"/>
+      <c r="AX30" s="82"/>
+      <c r="AY30" s="82"/>
+      <c r="AZ30" s="82"/>
+      <c r="BA30" s="82"/>
+      <c r="BB30" s="82"/>
+      <c r="BC30" s="82"/>
+      <c r="BD30" s="82"/>
+      <c r="BE30" s="82"/>
+      <c r="BF30" s="82"/>
+      <c r="BG30" s="82"/>
+      <c r="BH30" s="82"/>
+      <c r="BI30" s="82"/>
+      <c r="BJ30" s="82"/>
+      <c r="BK30" s="82"/>
+      <c r="BL30" s="79"/>
     </row>
     <row r="31" spans="1:64" ht="30">
-      <c r="A31" s="112"/>
-      <c r="B31" s="115"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="89"/>
       <c r="C31" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="117"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="107"/>
-      <c r="O31" s="107"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="107"/>
-      <c r="R31" s="107"/>
-      <c r="S31" s="107"/>
-      <c r="T31" s="107"/>
-      <c r="U31" s="107"/>
-      <c r="V31" s="107"/>
-      <c r="W31" s="107"/>
-      <c r="X31" s="107"/>
-      <c r="Y31" s="107"/>
-      <c r="Z31" s="107"/>
-      <c r="AA31" s="107"/>
-      <c r="AB31" s="107"/>
-      <c r="AC31" s="107"/>
-      <c r="AD31" s="107"/>
-      <c r="AE31" s="107"/>
-      <c r="AF31" s="107"/>
-      <c r="AG31" s="107"/>
-      <c r="AH31" s="107"/>
-      <c r="AI31" s="107"/>
-      <c r="AJ31" s="107"/>
-      <c r="AK31" s="107"/>
-      <c r="AL31" s="107"/>
-      <c r="AM31" s="107"/>
-      <c r="AN31" s="107"/>
-      <c r="AO31" s="107"/>
-      <c r="AP31" s="107"/>
-      <c r="AQ31" s="107"/>
-      <c r="AR31" s="107"/>
-      <c r="AS31" s="107"/>
-      <c r="AT31" s="107"/>
-      <c r="AU31" s="107"/>
-      <c r="AV31" s="107"/>
-      <c r="AW31" s="107"/>
-      <c r="AX31" s="107"/>
-      <c r="AY31" s="107"/>
-      <c r="AZ31" s="107"/>
-      <c r="BA31" s="107"/>
-      <c r="BB31" s="107"/>
-      <c r="BC31" s="107"/>
-      <c r="BD31" s="107"/>
-      <c r="BE31" s="107"/>
-      <c r="BF31" s="107"/>
-      <c r="BG31" s="107"/>
-      <c r="BH31" s="107"/>
-      <c r="BI31" s="107"/>
-      <c r="BJ31" s="107"/>
-      <c r="BK31" s="107"/>
-      <c r="BL31" s="118"/>
-    </row>
-    <row r="32" spans="1:64" ht="35.25" customHeight="1">
-      <c r="A32" s="113"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="117"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="107"/>
-      <c r="N32" s="107"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="107"/>
-      <c r="R32" s="107"/>
-      <c r="S32" s="107"/>
-      <c r="T32" s="107"/>
-      <c r="U32" s="107"/>
-      <c r="V32" s="107"/>
-      <c r="W32" s="107"/>
-      <c r="X32" s="107"/>
-      <c r="Y32" s="107"/>
-      <c r="Z32" s="107"/>
-      <c r="AA32" s="107"/>
-      <c r="AB32" s="107"/>
-      <c r="AC32" s="107"/>
-      <c r="AD32" s="107"/>
-      <c r="AE32" s="107"/>
-      <c r="AF32" s="107"/>
-      <c r="AG32" s="107"/>
-      <c r="AH32" s="107"/>
-      <c r="AI32" s="107"/>
-      <c r="AJ32" s="107"/>
-      <c r="AK32" s="107"/>
-      <c r="AL32" s="107"/>
-      <c r="AM32" s="107"/>
-      <c r="AN32" s="107"/>
-      <c r="AO32" s="107"/>
-      <c r="AP32" s="107"/>
-      <c r="AQ32" s="107"/>
-      <c r="AR32" s="107"/>
-      <c r="AS32" s="107"/>
-      <c r="AT32" s="107"/>
-      <c r="AU32" s="107"/>
-      <c r="AV32" s="107"/>
-      <c r="AW32" s="107"/>
-      <c r="AX32" s="107"/>
-      <c r="AY32" s="107"/>
-      <c r="AZ32" s="107"/>
-      <c r="BA32" s="107"/>
-      <c r="BB32" s="107"/>
-      <c r="BC32" s="107"/>
-      <c r="BD32" s="107"/>
-      <c r="BE32" s="107"/>
-      <c r="BF32" s="107"/>
-      <c r="BG32" s="107"/>
-      <c r="BH32" s="107"/>
-      <c r="BI32" s="107"/>
-      <c r="BJ32" s="107"/>
-      <c r="BK32" s="107"/>
-      <c r="BL32" s="118"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="82"/>
+      <c r="AB31" s="82"/>
+      <c r="AC31" s="82"/>
+      <c r="AD31" s="82"/>
+      <c r="AE31" s="82"/>
+      <c r="AF31" s="82"/>
+      <c r="AG31" s="82"/>
+      <c r="AH31" s="82"/>
+      <c r="AI31" s="82"/>
+      <c r="AJ31" s="82"/>
+      <c r="AK31" s="82"/>
+      <c r="AL31" s="82"/>
+      <c r="AM31" s="82"/>
+      <c r="AN31" s="82"/>
+      <c r="AO31" s="82"/>
+      <c r="AP31" s="82"/>
+      <c r="AQ31" s="82"/>
+      <c r="AR31" s="82"/>
+      <c r="AS31" s="82"/>
+      <c r="AT31" s="82"/>
+      <c r="AU31" s="82"/>
+      <c r="AV31" s="82"/>
+      <c r="AW31" s="82"/>
+      <c r="AX31" s="82"/>
+      <c r="AY31" s="82"/>
+      <c r="AZ31" s="82"/>
+      <c r="BA31" s="82"/>
+      <c r="BB31" s="82"/>
+      <c r="BC31" s="82"/>
+      <c r="BD31" s="82"/>
+      <c r="BE31" s="82"/>
+      <c r="BF31" s="82"/>
+      <c r="BG31" s="82"/>
+      <c r="BH31" s="82"/>
+      <c r="BI31" s="82"/>
+      <c r="BJ31" s="82"/>
+      <c r="BK31" s="82"/>
+      <c r="BL31" s="79"/>
+    </row>
+    <row r="32" spans="1:64" ht="35.25" customHeight="1">
+      <c r="A32" s="84"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="87"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="82"/>
+      <c r="R32" s="82"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="82"/>
+      <c r="W32" s="82"/>
+      <c r="X32" s="82"/>
+      <c r="Y32" s="82"/>
+      <c r="Z32" s="82"/>
+      <c r="AA32" s="82"/>
+      <c r="AB32" s="82"/>
+      <c r="AC32" s="82"/>
+      <c r="AD32" s="82"/>
+      <c r="AE32" s="82"/>
+      <c r="AF32" s="82"/>
+      <c r="AG32" s="82"/>
+      <c r="AH32" s="82"/>
+      <c r="AI32" s="82"/>
+      <c r="AJ32" s="82"/>
+      <c r="AK32" s="82"/>
+      <c r="AL32" s="82"/>
+      <c r="AM32" s="82"/>
+      <c r="AN32" s="82"/>
+      <c r="AO32" s="82"/>
+      <c r="AP32" s="82"/>
+      <c r="AQ32" s="82"/>
+      <c r="AR32" s="82"/>
+      <c r="AS32" s="82"/>
+      <c r="AT32" s="82"/>
+      <c r="AU32" s="82"/>
+      <c r="AV32" s="82"/>
+      <c r="AW32" s="82"/>
+      <c r="AX32" s="82"/>
+      <c r="AY32" s="82"/>
+      <c r="AZ32" s="82"/>
+      <c r="BA32" s="82"/>
+      <c r="BB32" s="82"/>
+      <c r="BC32" s="82"/>
+      <c r="BD32" s="82"/>
+      <c r="BE32" s="82"/>
+      <c r="BF32" s="82"/>
+      <c r="BG32" s="82"/>
+      <c r="BH32" s="82"/>
+      <c r="BI32" s="82"/>
+      <c r="BJ32" s="82"/>
+      <c r="BK32" s="82"/>
+      <c r="BL32" s="79"/>
     </row>
     <row r="33" spans="1:64" ht="40.5" customHeight="1">
       <c r="A33" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>26</v>
@@ -5271,148 +5269,148 @@
       <c r="BL33" s="15"/>
     </row>
     <row r="34" spans="1:64" ht="45">
-      <c r="A34" s="111" t="s">
-        <v>92</v>
+      <c r="A34" s="83" t="s">
+        <v>91</v>
       </c>
-      <c r="B34" s="114" t="s">
+      <c r="B34" s="85" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="87"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="82"/>
+      <c r="R34" s="82"/>
+      <c r="S34" s="82"/>
+      <c r="T34" s="82"/>
+      <c r="U34" s="82"/>
+      <c r="V34" s="82"/>
+      <c r="W34" s="82"/>
+      <c r="X34" s="82"/>
+      <c r="Y34" s="82"/>
+      <c r="Z34" s="82"/>
+      <c r="AA34" s="82"/>
+      <c r="AB34" s="82"/>
+      <c r="AC34" s="82"/>
+      <c r="AD34" s="82"/>
+      <c r="AE34" s="82"/>
+      <c r="AF34" s="82"/>
+      <c r="AG34" s="82"/>
+      <c r="AH34" s="82"/>
+      <c r="AI34" s="82"/>
+      <c r="AJ34" s="82"/>
+      <c r="AK34" s="82"/>
+      <c r="AL34" s="82"/>
+      <c r="AM34" s="82"/>
+      <c r="AN34" s="82"/>
+      <c r="AO34" s="82"/>
+      <c r="AP34" s="82"/>
+      <c r="AQ34" s="82"/>
+      <c r="AR34" s="82"/>
+      <c r="AS34" s="82"/>
+      <c r="AT34" s="82"/>
+      <c r="AU34" s="82"/>
+      <c r="AV34" s="82"/>
+      <c r="AW34" s="82"/>
+      <c r="AX34" s="82"/>
+      <c r="AY34" s="82"/>
+      <c r="AZ34" s="82"/>
+      <c r="BA34" s="82"/>
+      <c r="BB34" s="82"/>
+      <c r="BC34" s="82"/>
+      <c r="BD34" s="82"/>
+      <c r="BE34" s="82"/>
+      <c r="BF34" s="82"/>
+      <c r="BG34" s="82"/>
+      <c r="BH34" s="82"/>
+      <c r="BI34" s="82"/>
+      <c r="BJ34" s="82"/>
+      <c r="BK34" s="82"/>
+      <c r="BL34" s="79"/>
+    </row>
+    <row r="35" spans="1:64" ht="47.25" customHeight="1">
+      <c r="A35" s="88"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="117"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="107"/>
-      <c r="N34" s="107"/>
-      <c r="O34" s="107"/>
-      <c r="P34" s="107"/>
-      <c r="Q34" s="107"/>
-      <c r="R34" s="107"/>
-      <c r="S34" s="107"/>
-      <c r="T34" s="107"/>
-      <c r="U34" s="107"/>
-      <c r="V34" s="107"/>
-      <c r="W34" s="107"/>
-      <c r="X34" s="107"/>
-      <c r="Y34" s="107"/>
-      <c r="Z34" s="107"/>
-      <c r="AA34" s="107"/>
-      <c r="AB34" s="107"/>
-      <c r="AC34" s="107"/>
-      <c r="AD34" s="107"/>
-      <c r="AE34" s="107"/>
-      <c r="AF34" s="107"/>
-      <c r="AG34" s="107"/>
-      <c r="AH34" s="107"/>
-      <c r="AI34" s="107"/>
-      <c r="AJ34" s="107"/>
-      <c r="AK34" s="107"/>
-      <c r="AL34" s="107"/>
-      <c r="AM34" s="107"/>
-      <c r="AN34" s="107"/>
-      <c r="AO34" s="107"/>
-      <c r="AP34" s="107"/>
-      <c r="AQ34" s="107"/>
-      <c r="AR34" s="107"/>
-      <c r="AS34" s="107"/>
-      <c r="AT34" s="107"/>
-      <c r="AU34" s="107"/>
-      <c r="AV34" s="107"/>
-      <c r="AW34" s="107"/>
-      <c r="AX34" s="107"/>
-      <c r="AY34" s="107"/>
-      <c r="AZ34" s="107"/>
-      <c r="BA34" s="107"/>
-      <c r="BB34" s="107"/>
-      <c r="BC34" s="107"/>
-      <c r="BD34" s="107"/>
-      <c r="BE34" s="107"/>
-      <c r="BF34" s="107"/>
-      <c r="BG34" s="107"/>
-      <c r="BH34" s="107"/>
-      <c r="BI34" s="107"/>
-      <c r="BJ34" s="107"/>
-      <c r="BK34" s="107"/>
-      <c r="BL34" s="118"/>
-    </row>
-    <row r="35" spans="1:64" ht="47.25" customHeight="1">
-      <c r="A35" s="112"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="117"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="107"/>
-      <c r="L35" s="107"/>
-      <c r="M35" s="107"/>
-      <c r="N35" s="107"/>
-      <c r="O35" s="107"/>
-      <c r="P35" s="107"/>
-      <c r="Q35" s="107"/>
-      <c r="R35" s="107"/>
-      <c r="S35" s="107"/>
-      <c r="T35" s="107"/>
-      <c r="U35" s="107"/>
-      <c r="V35" s="107"/>
-      <c r="W35" s="107"/>
-      <c r="X35" s="107"/>
-      <c r="Y35" s="107"/>
-      <c r="Z35" s="107"/>
-      <c r="AA35" s="107"/>
-      <c r="AB35" s="107"/>
-      <c r="AC35" s="107"/>
-      <c r="AD35" s="107"/>
-      <c r="AE35" s="107"/>
-      <c r="AF35" s="107"/>
-      <c r="AG35" s="107"/>
-      <c r="AH35" s="107"/>
-      <c r="AI35" s="107"/>
-      <c r="AJ35" s="107"/>
-      <c r="AK35" s="107"/>
-      <c r="AL35" s="107"/>
-      <c r="AM35" s="107"/>
-      <c r="AN35" s="107"/>
-      <c r="AO35" s="107"/>
-      <c r="AP35" s="107"/>
-      <c r="AQ35" s="107"/>
-      <c r="AR35" s="107"/>
-      <c r="AS35" s="107"/>
-      <c r="AT35" s="107"/>
-      <c r="AU35" s="107"/>
-      <c r="AV35" s="107"/>
-      <c r="AW35" s="107"/>
-      <c r="AX35" s="107"/>
-      <c r="AY35" s="107"/>
-      <c r="AZ35" s="107"/>
-      <c r="BA35" s="107"/>
-      <c r="BB35" s="107"/>
-      <c r="BC35" s="107"/>
-      <c r="BD35" s="107"/>
-      <c r="BE35" s="107"/>
-      <c r="BF35" s="107"/>
-      <c r="BG35" s="107"/>
-      <c r="BH35" s="107"/>
-      <c r="BI35" s="107"/>
-      <c r="BJ35" s="107"/>
-      <c r="BK35" s="107"/>
-      <c r="BL35" s="118"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="82"/>
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="82"/>
+      <c r="AC35" s="82"/>
+      <c r="AD35" s="82"/>
+      <c r="AE35" s="82"/>
+      <c r="AF35" s="82"/>
+      <c r="AG35" s="82"/>
+      <c r="AH35" s="82"/>
+      <c r="AI35" s="82"/>
+      <c r="AJ35" s="82"/>
+      <c r="AK35" s="82"/>
+      <c r="AL35" s="82"/>
+      <c r="AM35" s="82"/>
+      <c r="AN35" s="82"/>
+      <c r="AO35" s="82"/>
+      <c r="AP35" s="82"/>
+      <c r="AQ35" s="82"/>
+      <c r="AR35" s="82"/>
+      <c r="AS35" s="82"/>
+      <c r="AT35" s="82"/>
+      <c r="AU35" s="82"/>
+      <c r="AV35" s="82"/>
+      <c r="AW35" s="82"/>
+      <c r="AX35" s="82"/>
+      <c r="AY35" s="82"/>
+      <c r="AZ35" s="82"/>
+      <c r="BA35" s="82"/>
+      <c r="BB35" s="82"/>
+      <c r="BC35" s="82"/>
+      <c r="BD35" s="82"/>
+      <c r="BE35" s="82"/>
+      <c r="BF35" s="82"/>
+      <c r="BG35" s="82"/>
+      <c r="BH35" s="82"/>
+      <c r="BI35" s="82"/>
+      <c r="BJ35" s="82"/>
+      <c r="BK35" s="82"/>
+      <c r="BL35" s="79"/>
     </row>
     <row r="36" spans="1:64" ht="36" customHeight="1">
       <c r="A36" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>26</v>
@@ -5483,144 +5481,144 @@
       <c r="BL36" s="15"/>
     </row>
     <row r="37" spans="1:64" ht="55.5" customHeight="1">
-      <c r="A37" s="111" t="s">
-        <v>94</v>
+      <c r="A37" s="83" t="s">
+        <v>93</v>
       </c>
-      <c r="B37" s="114" t="s">
+      <c r="B37" s="85" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
-      <c r="D37" s="117"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="107"/>
-      <c r="M37" s="107"/>
-      <c r="N37" s="107"/>
-      <c r="O37" s="107"/>
-      <c r="P37" s="107"/>
-      <c r="Q37" s="107"/>
-      <c r="R37" s="107"/>
-      <c r="S37" s="107"/>
-      <c r="T37" s="107"/>
-      <c r="U37" s="107"/>
-      <c r="V37" s="107"/>
-      <c r="W37" s="107"/>
-      <c r="X37" s="107"/>
-      <c r="Y37" s="107"/>
-      <c r="Z37" s="107"/>
-      <c r="AA37" s="107"/>
-      <c r="AB37" s="107"/>
-      <c r="AC37" s="107"/>
-      <c r="AD37" s="107"/>
-      <c r="AE37" s="107"/>
-      <c r="AF37" s="107"/>
-      <c r="AG37" s="107"/>
-      <c r="AH37" s="107"/>
-      <c r="AI37" s="107"/>
-      <c r="AJ37" s="107"/>
-      <c r="AK37" s="107"/>
-      <c r="AL37" s="107"/>
-      <c r="AM37" s="107"/>
-      <c r="AN37" s="107"/>
-      <c r="AO37" s="107"/>
-      <c r="AP37" s="107"/>
-      <c r="AQ37" s="107"/>
-      <c r="AR37" s="107"/>
-      <c r="AS37" s="107"/>
-      <c r="AT37" s="107"/>
-      <c r="AU37" s="107"/>
-      <c r="AV37" s="107"/>
-      <c r="AW37" s="107"/>
-      <c r="AX37" s="107"/>
-      <c r="AY37" s="107"/>
-      <c r="AZ37" s="107"/>
-      <c r="BA37" s="107"/>
-      <c r="BB37" s="107"/>
-      <c r="BC37" s="107"/>
-      <c r="BD37" s="107"/>
-      <c r="BE37" s="107"/>
-      <c r="BF37" s="107"/>
-      <c r="BG37" s="107"/>
-      <c r="BH37" s="107"/>
-      <c r="BI37" s="107"/>
-      <c r="BJ37" s="107"/>
-      <c r="BK37" s="107"/>
-      <c r="BL37" s="118"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="82"/>
+      <c r="R37" s="82"/>
+      <c r="S37" s="82"/>
+      <c r="T37" s="82"/>
+      <c r="U37" s="82"/>
+      <c r="V37" s="82"/>
+      <c r="W37" s="82"/>
+      <c r="X37" s="82"/>
+      <c r="Y37" s="82"/>
+      <c r="Z37" s="82"/>
+      <c r="AA37" s="82"/>
+      <c r="AB37" s="82"/>
+      <c r="AC37" s="82"/>
+      <c r="AD37" s="82"/>
+      <c r="AE37" s="82"/>
+      <c r="AF37" s="82"/>
+      <c r="AG37" s="82"/>
+      <c r="AH37" s="82"/>
+      <c r="AI37" s="82"/>
+      <c r="AJ37" s="82"/>
+      <c r="AK37" s="82"/>
+      <c r="AL37" s="82"/>
+      <c r="AM37" s="82"/>
+      <c r="AN37" s="82"/>
+      <c r="AO37" s="82"/>
+      <c r="AP37" s="82"/>
+      <c r="AQ37" s="82"/>
+      <c r="AR37" s="82"/>
+      <c r="AS37" s="82"/>
+      <c r="AT37" s="82"/>
+      <c r="AU37" s="82"/>
+      <c r="AV37" s="82"/>
+      <c r="AW37" s="82"/>
+      <c r="AX37" s="82"/>
+      <c r="AY37" s="82"/>
+      <c r="AZ37" s="82"/>
+      <c r="BA37" s="82"/>
+      <c r="BB37" s="82"/>
+      <c r="BC37" s="82"/>
+      <c r="BD37" s="82"/>
+      <c r="BE37" s="82"/>
+      <c r="BF37" s="82"/>
+      <c r="BG37" s="82"/>
+      <c r="BH37" s="82"/>
+      <c r="BI37" s="82"/>
+      <c r="BJ37" s="82"/>
+      <c r="BK37" s="82"/>
+      <c r="BL37" s="79"/>
     </row>
     <row r="38" spans="1:64" ht="74.25" customHeight="1">
-      <c r="A38" s="113"/>
-      <c r="B38" s="116"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
-      <c r="D38" s="117"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="107"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="107"/>
-      <c r="N38" s="107"/>
-      <c r="O38" s="107"/>
-      <c r="P38" s="107"/>
-      <c r="Q38" s="107"/>
-      <c r="R38" s="107"/>
-      <c r="S38" s="107"/>
-      <c r="T38" s="107"/>
-      <c r="U38" s="107"/>
-      <c r="V38" s="107"/>
-      <c r="W38" s="107"/>
-      <c r="X38" s="107"/>
-      <c r="Y38" s="107"/>
-      <c r="Z38" s="107"/>
-      <c r="AA38" s="107"/>
-      <c r="AB38" s="107"/>
-      <c r="AC38" s="107"/>
-      <c r="AD38" s="107"/>
-      <c r="AE38" s="107"/>
-      <c r="AF38" s="107"/>
-      <c r="AG38" s="107"/>
-      <c r="AH38" s="107"/>
-      <c r="AI38" s="107"/>
-      <c r="AJ38" s="107"/>
-      <c r="AK38" s="107"/>
-      <c r="AL38" s="107"/>
-      <c r="AM38" s="107"/>
-      <c r="AN38" s="107"/>
-      <c r="AO38" s="107"/>
-      <c r="AP38" s="107"/>
-      <c r="AQ38" s="107"/>
-      <c r="AR38" s="107"/>
-      <c r="AS38" s="107"/>
-      <c r="AT38" s="107"/>
-      <c r="AU38" s="107"/>
-      <c r="AV38" s="107"/>
-      <c r="AW38" s="107"/>
-      <c r="AX38" s="107"/>
-      <c r="AY38" s="107"/>
-      <c r="AZ38" s="107"/>
-      <c r="BA38" s="107"/>
-      <c r="BB38" s="107"/>
-      <c r="BC38" s="107"/>
-      <c r="BD38" s="107"/>
-      <c r="BE38" s="107"/>
-      <c r="BF38" s="107"/>
-      <c r="BG38" s="107"/>
-      <c r="BH38" s="107"/>
-      <c r="BI38" s="107"/>
-      <c r="BJ38" s="107"/>
-      <c r="BK38" s="107"/>
-      <c r="BL38" s="118"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="82"/>
+      <c r="Q38" s="82"/>
+      <c r="R38" s="82"/>
+      <c r="S38" s="82"/>
+      <c r="T38" s="82"/>
+      <c r="U38" s="82"/>
+      <c r="V38" s="82"/>
+      <c r="W38" s="82"/>
+      <c r="X38" s="82"/>
+      <c r="Y38" s="82"/>
+      <c r="Z38" s="82"/>
+      <c r="AA38" s="82"/>
+      <c r="AB38" s="82"/>
+      <c r="AC38" s="82"/>
+      <c r="AD38" s="82"/>
+      <c r="AE38" s="82"/>
+      <c r="AF38" s="82"/>
+      <c r="AG38" s="82"/>
+      <c r="AH38" s="82"/>
+      <c r="AI38" s="82"/>
+      <c r="AJ38" s="82"/>
+      <c r="AK38" s="82"/>
+      <c r="AL38" s="82"/>
+      <c r="AM38" s="82"/>
+      <c r="AN38" s="82"/>
+      <c r="AO38" s="82"/>
+      <c r="AP38" s="82"/>
+      <c r="AQ38" s="82"/>
+      <c r="AR38" s="82"/>
+      <c r="AS38" s="82"/>
+      <c r="AT38" s="82"/>
+      <c r="AU38" s="82"/>
+      <c r="AV38" s="82"/>
+      <c r="AW38" s="82"/>
+      <c r="AX38" s="82"/>
+      <c r="AY38" s="82"/>
+      <c r="AZ38" s="82"/>
+      <c r="BA38" s="82"/>
+      <c r="BB38" s="82"/>
+      <c r="BC38" s="82"/>
+      <c r="BD38" s="82"/>
+      <c r="BE38" s="82"/>
+      <c r="BF38" s="82"/>
+      <c r="BG38" s="82"/>
+      <c r="BH38" s="82"/>
+      <c r="BI38" s="82"/>
+      <c r="BJ38" s="82"/>
+      <c r="BK38" s="82"/>
+      <c r="BL38" s="79"/>
     </row>
     <row r="39" spans="1:64" ht="15.75">
       <c r="A39" s="2"/>
@@ -32280,6 +32278,246 @@
     </row>
   </sheetData>
   <mergeCells count="264">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="AB18:AB19"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="BD18:BD19"/>
+    <mergeCell ref="BE18:BE19"/>
+    <mergeCell ref="AX18:AX19"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="AZ18:AZ19"/>
+    <mergeCell ref="BA18:BA19"/>
+    <mergeCell ref="BB18:BB19"/>
+    <mergeCell ref="BC18:BC19"/>
+    <mergeCell ref="AR18:AR19"/>
+    <mergeCell ref="AS18:AS19"/>
+    <mergeCell ref="AT18:AT19"/>
+    <mergeCell ref="AU18:AU19"/>
+    <mergeCell ref="AV18:AV19"/>
+    <mergeCell ref="AW18:AW19"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AM18:AM19"/>
+    <mergeCell ref="AN18:AN19"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="M30:M32"/>
+    <mergeCell ref="BJ18:BJ19"/>
+    <mergeCell ref="BK18:BK19"/>
+    <mergeCell ref="BL18:BL19"/>
+    <mergeCell ref="BF18:BF19"/>
+    <mergeCell ref="BG18:BG19"/>
+    <mergeCell ref="BH18:BH19"/>
+    <mergeCell ref="BI18:BI19"/>
+    <mergeCell ref="AO18:AO19"/>
+    <mergeCell ref="AP18:AP19"/>
+    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="T30:T32"/>
+    <mergeCell ref="U30:U32"/>
+    <mergeCell ref="V30:V32"/>
+    <mergeCell ref="W30:W32"/>
+    <mergeCell ref="X30:X32"/>
+    <mergeCell ref="Y30:Y32"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="S30:S32"/>
+    <mergeCell ref="AF30:AF32"/>
+    <mergeCell ref="AG30:AG32"/>
+    <mergeCell ref="AH30:AH32"/>
+    <mergeCell ref="AI30:AI32"/>
+    <mergeCell ref="AJ30:AJ32"/>
+    <mergeCell ref="AK30:AK32"/>
+    <mergeCell ref="Z30:Z32"/>
+    <mergeCell ref="AA30:AA32"/>
+    <mergeCell ref="AB30:AB32"/>
+    <mergeCell ref="AC30:AC32"/>
+    <mergeCell ref="AD30:AD32"/>
+    <mergeCell ref="AE30:AE32"/>
+    <mergeCell ref="AT30:AT32"/>
+    <mergeCell ref="AU30:AU32"/>
+    <mergeCell ref="AV30:AV32"/>
+    <mergeCell ref="AW30:AW32"/>
+    <mergeCell ref="AL30:AL32"/>
+    <mergeCell ref="AM30:AM32"/>
+    <mergeCell ref="AN30:AN32"/>
+    <mergeCell ref="AO30:AO32"/>
+    <mergeCell ref="AP30:AP32"/>
+    <mergeCell ref="AQ30:AQ32"/>
+    <mergeCell ref="BJ30:BJ32"/>
+    <mergeCell ref="BK30:BK32"/>
+    <mergeCell ref="BL30:BL32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="BD30:BD32"/>
+    <mergeCell ref="BE30:BE32"/>
+    <mergeCell ref="BF30:BF32"/>
+    <mergeCell ref="BG30:BG32"/>
+    <mergeCell ref="BH30:BH32"/>
+    <mergeCell ref="BI30:BI32"/>
+    <mergeCell ref="AX30:AX32"/>
+    <mergeCell ref="AY30:AY32"/>
+    <mergeCell ref="AZ30:AZ32"/>
+    <mergeCell ref="BA30:BA32"/>
+    <mergeCell ref="BB30:BB32"/>
+    <mergeCell ref="BC30:BC32"/>
+    <mergeCell ref="AR30:AR32"/>
+    <mergeCell ref="AS30:AS32"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="AC34:AC35"/>
+    <mergeCell ref="AD34:AD35"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AF34:AF35"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="X34:X35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="AM34:AM35"/>
+    <mergeCell ref="AN34:AN35"/>
+    <mergeCell ref="AO34:AO35"/>
+    <mergeCell ref="AP34:AP35"/>
+    <mergeCell ref="AQ34:AQ35"/>
+    <mergeCell ref="AR34:AR35"/>
+    <mergeCell ref="AG34:AG35"/>
+    <mergeCell ref="AH34:AH35"/>
+    <mergeCell ref="AI34:AI35"/>
+    <mergeCell ref="AJ34:AJ35"/>
+    <mergeCell ref="AK34:AK35"/>
+    <mergeCell ref="AL34:AL35"/>
+    <mergeCell ref="BA34:BA35"/>
+    <mergeCell ref="BB34:BB35"/>
+    <mergeCell ref="BC34:BC35"/>
+    <mergeCell ref="BD34:BD35"/>
+    <mergeCell ref="AS34:AS35"/>
+    <mergeCell ref="AT34:AT35"/>
+    <mergeCell ref="AU34:AU35"/>
+    <mergeCell ref="AV34:AV35"/>
+    <mergeCell ref="AW34:AW35"/>
+    <mergeCell ref="AX34:AX35"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="BK34:BK35"/>
+    <mergeCell ref="BL34:BL35"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="BE34:BE35"/>
+    <mergeCell ref="BF34:BF35"/>
+    <mergeCell ref="BG34:BG35"/>
+    <mergeCell ref="BH34:BH35"/>
+    <mergeCell ref="BI34:BI35"/>
+    <mergeCell ref="BJ34:BJ35"/>
+    <mergeCell ref="AY34:AY35"/>
+    <mergeCell ref="AZ34:AZ35"/>
+    <mergeCell ref="V37:V38"/>
+    <mergeCell ref="W37:W38"/>
+    <mergeCell ref="X37:X38"/>
+    <mergeCell ref="Y37:Y38"/>
+    <mergeCell ref="Z37:Z38"/>
+    <mergeCell ref="AA37:AA38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="T37:T38"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="AR37:AR38"/>
+    <mergeCell ref="AS37:AS38"/>
+    <mergeCell ref="AH37:AH38"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AJ37:AJ38"/>
+    <mergeCell ref="AK37:AK38"/>
+    <mergeCell ref="AL37:AL38"/>
+    <mergeCell ref="AM37:AM38"/>
+    <mergeCell ref="AB37:AB38"/>
+    <mergeCell ref="AC37:AC38"/>
+    <mergeCell ref="AD37:AD38"/>
+    <mergeCell ref="AE37:AE38"/>
+    <mergeCell ref="AF37:AF38"/>
+    <mergeCell ref="AG37:AG38"/>
     <mergeCell ref="BL37:BL38"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="BF37:BF38"/>
@@ -32304,246 +32542,6 @@
     <mergeCell ref="AO37:AO38"/>
     <mergeCell ref="AP37:AP38"/>
     <mergeCell ref="AQ37:AQ38"/>
-    <mergeCell ref="AR37:AR38"/>
-    <mergeCell ref="AS37:AS38"/>
-    <mergeCell ref="AH37:AH38"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AJ37:AJ38"/>
-    <mergeCell ref="AK37:AK38"/>
-    <mergeCell ref="AL37:AL38"/>
-    <mergeCell ref="AM37:AM38"/>
-    <mergeCell ref="AB37:AB38"/>
-    <mergeCell ref="AC37:AC38"/>
-    <mergeCell ref="AD37:AD38"/>
-    <mergeCell ref="AE37:AE38"/>
-    <mergeCell ref="AF37:AF38"/>
-    <mergeCell ref="AG37:AG38"/>
-    <mergeCell ref="V37:V38"/>
-    <mergeCell ref="W37:W38"/>
-    <mergeCell ref="X37:X38"/>
-    <mergeCell ref="Y37:Y38"/>
-    <mergeCell ref="Z37:Z38"/>
-    <mergeCell ref="AA37:AA38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="T37:T38"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="BK34:BK35"/>
-    <mergeCell ref="BL34:BL35"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="BE34:BE35"/>
-    <mergeCell ref="BF34:BF35"/>
-    <mergeCell ref="BG34:BG35"/>
-    <mergeCell ref="BH34:BH35"/>
-    <mergeCell ref="BI34:BI35"/>
-    <mergeCell ref="BJ34:BJ35"/>
-    <mergeCell ref="AY34:AY35"/>
-    <mergeCell ref="AZ34:AZ35"/>
-    <mergeCell ref="BA34:BA35"/>
-    <mergeCell ref="BB34:BB35"/>
-    <mergeCell ref="BC34:BC35"/>
-    <mergeCell ref="BD34:BD35"/>
-    <mergeCell ref="AS34:AS35"/>
-    <mergeCell ref="AT34:AT35"/>
-    <mergeCell ref="AU34:AU35"/>
-    <mergeCell ref="AV34:AV35"/>
-    <mergeCell ref="AW34:AW35"/>
-    <mergeCell ref="AX34:AX35"/>
-    <mergeCell ref="AM34:AM35"/>
-    <mergeCell ref="AN34:AN35"/>
-    <mergeCell ref="AO34:AO35"/>
-    <mergeCell ref="AP34:AP35"/>
-    <mergeCell ref="AQ34:AQ35"/>
-    <mergeCell ref="AR34:AR35"/>
-    <mergeCell ref="AG34:AG35"/>
-    <mergeCell ref="AH34:AH35"/>
-    <mergeCell ref="AI34:AI35"/>
-    <mergeCell ref="AJ34:AJ35"/>
-    <mergeCell ref="AK34:AK35"/>
-    <mergeCell ref="AL34:AL35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="AB34:AB35"/>
-    <mergeCell ref="AC34:AC35"/>
-    <mergeCell ref="AD34:AD35"/>
-    <mergeCell ref="AE34:AE35"/>
-    <mergeCell ref="AF34:AF35"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="X34:X35"/>
-    <mergeCell ref="Y34:Y35"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="BJ30:BJ32"/>
-    <mergeCell ref="BK30:BK32"/>
-    <mergeCell ref="BL30:BL32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="BD30:BD32"/>
-    <mergeCell ref="BE30:BE32"/>
-    <mergeCell ref="BF30:BF32"/>
-    <mergeCell ref="BG30:BG32"/>
-    <mergeCell ref="BH30:BH32"/>
-    <mergeCell ref="BI30:BI32"/>
-    <mergeCell ref="AX30:AX32"/>
-    <mergeCell ref="AY30:AY32"/>
-    <mergeCell ref="AZ30:AZ32"/>
-    <mergeCell ref="BA30:BA32"/>
-    <mergeCell ref="BB30:BB32"/>
-    <mergeCell ref="BC30:BC32"/>
-    <mergeCell ref="AR30:AR32"/>
-    <mergeCell ref="AS30:AS32"/>
-    <mergeCell ref="AT30:AT32"/>
-    <mergeCell ref="AU30:AU32"/>
-    <mergeCell ref="AV30:AV32"/>
-    <mergeCell ref="AW30:AW32"/>
-    <mergeCell ref="AL30:AL32"/>
-    <mergeCell ref="AM30:AM32"/>
-    <mergeCell ref="AN30:AN32"/>
-    <mergeCell ref="AO30:AO32"/>
-    <mergeCell ref="AP30:AP32"/>
-    <mergeCell ref="AQ30:AQ32"/>
-    <mergeCell ref="AF30:AF32"/>
-    <mergeCell ref="AG30:AG32"/>
-    <mergeCell ref="AH30:AH32"/>
-    <mergeCell ref="AI30:AI32"/>
-    <mergeCell ref="AJ30:AJ32"/>
-    <mergeCell ref="AK30:AK32"/>
-    <mergeCell ref="Z30:Z32"/>
-    <mergeCell ref="AA30:AA32"/>
-    <mergeCell ref="AB30:AB32"/>
-    <mergeCell ref="AC30:AC32"/>
-    <mergeCell ref="AD30:AD32"/>
-    <mergeCell ref="AE30:AE32"/>
-    <mergeCell ref="T30:T32"/>
-    <mergeCell ref="U30:U32"/>
-    <mergeCell ref="V30:V32"/>
-    <mergeCell ref="W30:W32"/>
-    <mergeCell ref="X30:X32"/>
-    <mergeCell ref="Y30:Y32"/>
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="O30:O32"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="R30:R32"/>
-    <mergeCell ref="S30:S32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="M30:M32"/>
-    <mergeCell ref="BJ18:BJ19"/>
-    <mergeCell ref="BK18:BK19"/>
-    <mergeCell ref="BL18:BL19"/>
-    <mergeCell ref="BF18:BF19"/>
-    <mergeCell ref="BG18:BG19"/>
-    <mergeCell ref="BH18:BH19"/>
-    <mergeCell ref="BI18:BI19"/>
-    <mergeCell ref="AO18:AO19"/>
-    <mergeCell ref="AP18:AP19"/>
-    <mergeCell ref="AQ18:AQ19"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="AK18:AK19"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="BD18:BD19"/>
-    <mergeCell ref="BE18:BE19"/>
-    <mergeCell ref="AX18:AX19"/>
-    <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="AZ18:AZ19"/>
-    <mergeCell ref="BA18:BA19"/>
-    <mergeCell ref="BB18:BB19"/>
-    <mergeCell ref="BC18:BC19"/>
-    <mergeCell ref="AR18:AR19"/>
-    <mergeCell ref="AS18:AS19"/>
-    <mergeCell ref="AT18:AT19"/>
-    <mergeCell ref="AU18:AU19"/>
-    <mergeCell ref="AV18:AV19"/>
-    <mergeCell ref="AW18:AW19"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AM18:AM19"/>
-    <mergeCell ref="AN18:AN19"/>
-    <mergeCell ref="AB18:AB19"/>
-    <mergeCell ref="AC18:AC19"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AE18:AE19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F13" r:id="rId1" display="https://www.powertrafic.fr/texte-cache-seo/" xr:uid="{11E0B59A-4E13-4EC0-AF42-2BC215D5F718}"/>
